--- a/gamers-field/checklist.xlsx
+++ b/gamers-field/checklist.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/gamers-field/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACDD0CC1-2182-3B43-AC5F-62DE55E33B48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A966F143-1E4D-894E-B777-12B46AE6B5A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{7071463E-4E02-454C-9B4A-9FAABF82F4D8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{7071463E-4E02-454C-9B4A-9FAABF82F4D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="170">
   <si>
     <t>year</t>
   </si>
@@ -219,6 +220,330 @@
   </si>
   <si>
     <t>Gamers Field 5th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 6th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 6th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 6th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 6th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 6th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 6th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>Gamers Field 6th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>Gamers Field 6th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>Gamers Field 6th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>Gamers Field 6th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>Gamers Field 6th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>Gamers Field 6th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>06.1.jpg</t>
+  </si>
+  <si>
+    <t>06.2.jpg</t>
+  </si>
+  <si>
+    <t>06.3.jpg</t>
+  </si>
+  <si>
+    <t>06.4.jpg</t>
+  </si>
+  <si>
+    <t>06.5.jpg</t>
+  </si>
+  <si>
+    <t>06.6.jpg</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 7th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 7th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 7th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 7th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 7th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 7th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>Gamers Field 7th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>Gamers Field 7th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>Gamers Field 7th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>Gamers Field 7th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>Gamers Field 7th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>Gamers Field 7th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>07.1.jpg</t>
+  </si>
+  <si>
+    <t>07.2.jpg</t>
+  </si>
+  <si>
+    <t>07.3.jpg</t>
+  </si>
+  <si>
+    <t>07.4.jpg</t>
+  </si>
+  <si>
+    <t>07.5.jpg</t>
+  </si>
+  <si>
+    <t>07.6.jpg</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 8th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 8th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 8th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 8th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 8th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 8th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>Gamers Field 8th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>Gamers Field 8th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>Gamers Field 8th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>Gamers Field 8th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>Gamers Field 8th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>08.1.jpg</t>
+  </si>
+  <si>
+    <t>Gamers Field 8th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>08.2.jpg</t>
+  </si>
+  <si>
+    <t>08.3.jpg</t>
+  </si>
+  <si>
+    <t>08.4.jpg</t>
+  </si>
+  <si>
+    <t>08.5.jpg</t>
+  </si>
+  <si>
+    <t>08.6.jpg</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 9th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 9th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 9th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 9th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 9th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 9th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>Gamers Field 9th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>Gamers Field 9th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>Gamers Field 9th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>Gamers Field 9th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>Gamers Field 9th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>Gamers Field 9th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>09.1.jpg</t>
+  </si>
+  <si>
+    <t>09.2.jpg</t>
+  </si>
+  <si>
+    <t>09.3.jpg</t>
+  </si>
+  <si>
+    <t>09.4.jpg</t>
+  </si>
+  <si>
+    <t>09.5.jpg</t>
+  </si>
+  <si>
+    <t>09.6.jpg</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 10th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 10th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 10th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 10th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 10th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 10th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 11th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 11th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 11th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 11th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 11th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 11th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>Gamers Field 10th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>Gamers Field 10th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>Gamers Field 10th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>Gamers Field 10th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>Gamers Field 10th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>Gamers Field 10th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>Gamers Field 11th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>Gamers Field 11th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>Gamers Field 11th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>Gamers Field 11th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>Gamers Field 11th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>Gamers Field 11th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>10.1.jpg</t>
+  </si>
+  <si>
+    <t>10.2.jpg</t>
+  </si>
+  <si>
+    <t>10.3.jpg</t>
+  </si>
+  <si>
+    <t>10.4.jpg</t>
+  </si>
+  <si>
+    <t>10.5.jpg</t>
+  </si>
+  <si>
+    <t>10.6.jpg</t>
+  </si>
+  <si>
+    <t>11.1.jpg</t>
+  </si>
+  <si>
+    <t>11.2.jpg</t>
+  </si>
+  <si>
+    <t>11.3.jpg</t>
+  </si>
+  <si>
+    <t>11.4.jpg</t>
+  </si>
+  <si>
+    <t>11.5.jpg</t>
+  </si>
+  <si>
+    <t>11.6.jpg</t>
   </si>
 </sst>
 </file>
@@ -585,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6210A376-4F4D-0040-8777-EC5B51962BE6}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -761,7 +1086,7 @@
         <v>ゲーマーズ・フィールド 1997 10</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" ref="C3:C19" si="3">_xlfn.CONCAT("Gamers Field ", LEFT(E8, 4), " ", RIGHT(LEFT(E8, 6), 2))</f>
+        <f t="shared" ref="C8:C15" si="3">_xlfn.CONCAT("Gamers Field ", LEFT(E8, 4), " ", RIGHT(LEFT(E8, 6), 2))</f>
         <v>Gamers Field 1997 10</v>
       </c>
       <c r="D8" t="s">
@@ -1253,6 +1578,726 @@
         <v>35</v>
       </c>
       <c r="F31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2001</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2002</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2002</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2002</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2002</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2002</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2002</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2003</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2003</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2003</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2003</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2003</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2003</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2004</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2004</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2004</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2004</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2004</v>
+      </c>
+      <c r="B50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2004</v>
+      </c>
+      <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2005</v>
+      </c>
+      <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2005</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2005</v>
+      </c>
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2005</v>
+      </c>
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2005</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2005</v>
+      </c>
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" t="s">
+        <v>159</v>
+      </c>
+      <c r="F57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2006</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" t="s">
+        <v>160</v>
+      </c>
+      <c r="F58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2006</v>
+      </c>
+      <c r="B59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" t="s">
+        <v>161</v>
+      </c>
+      <c r="F59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2006</v>
+      </c>
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" t="s">
+        <v>162</v>
+      </c>
+      <c r="F60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2006</v>
+      </c>
+      <c r="B61" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" t="s">
+        <v>163</v>
+      </c>
+      <c r="F61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2006</v>
+      </c>
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" t="s">
+        <v>164</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2006</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" t="s">
+        <v>165</v>
+      </c>
+      <c r="F63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2007</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" t="s">
+        <v>166</v>
+      </c>
+      <c r="F64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2007</v>
+      </c>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" t="s">
+        <v>167</v>
+      </c>
+      <c r="F65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2007</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" t="s">
+        <v>168</v>
+      </c>
+      <c r="F66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2007</v>
+      </c>
+      <c r="B67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" t="s">
+        <v>169</v>
+      </c>
+      <c r="F67" t="s">
         <v>36</v>
       </c>
     </row>

--- a/gamers-field/checklist.xlsx
+++ b/gamers-field/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/gamers-field/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A966F143-1E4D-894E-B777-12B46AE6B5A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447CBCB8-C99B-1A4D-845A-9B590566AB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{7071463E-4E02-454C-9B4A-9FAABF82F4D8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="386">
   <si>
     <t>year</t>
   </si>
@@ -544,13 +544,661 @@
   </si>
   <si>
     <t>11.6.jpg</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 12th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 12th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 12th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 12th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 12th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 12th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 13th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 13th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 13th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 13th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 13th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 13th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 14th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 14th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 14th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 14th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 14th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 14th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 15th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 15th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 15th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 15th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 15th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 15th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 16th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 16th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 16th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 16th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 16th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 16th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 17th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 17th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 17th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 17th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 17th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 17th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 18th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 18th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 18th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 18th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 18th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 18th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 19th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 19th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 19th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 19th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 19th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 19th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 20th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 20th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 20th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 20th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 20th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 20th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 23rd Season Vol. 1</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 21st Season Vol. 1</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 21st Season Vol. 2</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 21st Season Vol. 3</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 21st Season Vol. 4</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 21st Season Vol. 5</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 21st Season Vol. 6</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 22nd Season Vol. 1</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 22nd Season Vol. 2</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 22nd Season Vol. 3</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 22nd Season Vol. 4</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 22nd Season Vol. 5</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 22nd Season Vol. 6</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 23rd Season Vol. 2</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 23rd Season Vol. 3</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 23rd Season Vol. 4</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 23rd Season Vol. 5</t>
+  </si>
+  <si>
+    <t>ゲーマーズ・フィールド 23rd Season Vol. 6</t>
+  </si>
+  <si>
+    <t>Gamers Field 12th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>Gamers Field 12th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>Gamers Field 12th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>Gamers Field 12th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>Gamers Field 12th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>Gamers Field 12th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>Gamers Field 13th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>Gamers Field 13th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>Gamers Field 13th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>Gamers Field 13th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>Gamers Field 13th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>Gamers Field 13th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>Gamers Field 14th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>Gamers Field 14th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>Gamers Field 14th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>Gamers Field 14th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>Gamers Field 14th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>Gamers Field 14th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>Gamers Field 15th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>Gamers Field 15th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>Gamers Field 15th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>Gamers Field 15th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>Gamers Field 15th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>Gamers Field 15th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>Gamers Field 16th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>Gamers Field 16th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>Gamers Field 16th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>Gamers Field 16th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>Gamers Field 16th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>Gamers Field 16th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>Gamers Field 17th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>Gamers Field 17th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>Gamers Field 17th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>Gamers Field 17th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>Gamers Field 17th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>Gamers Field 17th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>Gamers Field 18th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>Gamers Field 18th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>Gamers Field 18th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>Gamers Field 18th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>Gamers Field 18th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>Gamers Field 18th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>Gamers Field 19th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>Gamers Field 19th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>Gamers Field 19th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>Gamers Field 19th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>Gamers Field 19th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>Gamers Field 19th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>Gamers Field 20th Season Vol. 1</t>
+  </si>
+  <si>
+    <t>Gamers Field 20th Season Vol. 2</t>
+  </si>
+  <si>
+    <t>Gamers Field 20th Season Vol. 3</t>
+  </si>
+  <si>
+    <t>Gamers Field 20th Season Vol. 4</t>
+  </si>
+  <si>
+    <t>Gamers Field 20th Season Vol. 5</t>
+  </si>
+  <si>
+    <t>Gamers Field 20th Season Vol. 6</t>
+  </si>
+  <si>
+    <t>Gamers Field 21st Season Vol. 1</t>
+  </si>
+  <si>
+    <t>Gamers Field 21st Season Vol. 2</t>
+  </si>
+  <si>
+    <t>Gamers Field 21st Season Vol. 3</t>
+  </si>
+  <si>
+    <t>Gamers Field 21st Season Vol. 4</t>
+  </si>
+  <si>
+    <t>Gamers Field 21st Season Vol. 5</t>
+  </si>
+  <si>
+    <t>Gamers Field 21st Season Vol. 6</t>
+  </si>
+  <si>
+    <t>Gamers Field 22nd Season Vol. 1</t>
+  </si>
+  <si>
+    <t>Gamers Field 22nd Season Vol. 2</t>
+  </si>
+  <si>
+    <t>Gamers Field 22nd Season Vol. 3</t>
+  </si>
+  <si>
+    <t>Gamers Field 22nd Season Vol. 4</t>
+  </si>
+  <si>
+    <t>Gamers Field 22nd Season Vol. 5</t>
+  </si>
+  <si>
+    <t>Gamers Field 22nd Season Vol. 6</t>
+  </si>
+  <si>
+    <t>Gamers Field 23rd Season Vol. 1</t>
+  </si>
+  <si>
+    <t>Gamers Field 23rd Season Vol. 2</t>
+  </si>
+  <si>
+    <t>Gamers Field 23rd Season Vol. 3</t>
+  </si>
+  <si>
+    <t>Gamers Field 23rd Season Vol. 4</t>
+  </si>
+  <si>
+    <t>Gamers Field 23rd Season Vol. 5</t>
+  </si>
+  <si>
+    <t>Gamers Field 23rd Season Vol. 6</t>
+  </si>
+  <si>
+    <t>12.1.jpg</t>
+  </si>
+  <si>
+    <t>12.2.jpg</t>
+  </si>
+  <si>
+    <t>12.3.jpg</t>
+  </si>
+  <si>
+    <t>12.4.jpg</t>
+  </si>
+  <si>
+    <t>12.5.jpg</t>
+  </si>
+  <si>
+    <t>12.6.jpg</t>
+  </si>
+  <si>
+    <t>13.1.jpg</t>
+  </si>
+  <si>
+    <t>13.2.jpg</t>
+  </si>
+  <si>
+    <t>13.3.jpg</t>
+  </si>
+  <si>
+    <t>13.4.jpg</t>
+  </si>
+  <si>
+    <t>13.5.jpg</t>
+  </si>
+  <si>
+    <t>13.6.jpg</t>
+  </si>
+  <si>
+    <t>14.1.jpg</t>
+  </si>
+  <si>
+    <t>14.2.jpg</t>
+  </si>
+  <si>
+    <t>14.3.jpg</t>
+  </si>
+  <si>
+    <t>14.4.jpg</t>
+  </si>
+  <si>
+    <t>14.5.jpg</t>
+  </si>
+  <si>
+    <t>14.6.jpg</t>
+  </si>
+  <si>
+    <t>15.1.jpg</t>
+  </si>
+  <si>
+    <t>15.2.jpg</t>
+  </si>
+  <si>
+    <t>15.3.jpg</t>
+  </si>
+  <si>
+    <t>15.4.jpg</t>
+  </si>
+  <si>
+    <t>15.5.jpg</t>
+  </si>
+  <si>
+    <t>15.6.jpg</t>
+  </si>
+  <si>
+    <t>16.1.jpg</t>
+  </si>
+  <si>
+    <t>16.2.jpg</t>
+  </si>
+  <si>
+    <t>16.3.jpg</t>
+  </si>
+  <si>
+    <t>16.4.jpg</t>
+  </si>
+  <si>
+    <t>16.5.jpg</t>
+  </si>
+  <si>
+    <t>16.6.jpg</t>
+  </si>
+  <si>
+    <t>17.1.jpg</t>
+  </si>
+  <si>
+    <t>17.2.jpg</t>
+  </si>
+  <si>
+    <t>17.3.jpg</t>
+  </si>
+  <si>
+    <t>17.4.jpg</t>
+  </si>
+  <si>
+    <t>17.5.jpg</t>
+  </si>
+  <si>
+    <t>17.6.jpg</t>
+  </si>
+  <si>
+    <t>18.1.jpg</t>
+  </si>
+  <si>
+    <t>18.2.jpg</t>
+  </si>
+  <si>
+    <t>18.3.jpg</t>
+  </si>
+  <si>
+    <t>18.4.jpg</t>
+  </si>
+  <si>
+    <t>18.5.jpg</t>
+  </si>
+  <si>
+    <t>18.6.jpg</t>
+  </si>
+  <si>
+    <t>19.1.jpg</t>
+  </si>
+  <si>
+    <t>19.2.jpg</t>
+  </si>
+  <si>
+    <t>19.3.jpg</t>
+  </si>
+  <si>
+    <t>19.4.jpg</t>
+  </si>
+  <si>
+    <t>19.5.jpg</t>
+  </si>
+  <si>
+    <t>19.6.jpg</t>
+  </si>
+  <si>
+    <t>20.1.jpg</t>
+  </si>
+  <si>
+    <t>20.2.jpg</t>
+  </si>
+  <si>
+    <t>20.3.jpg</t>
+  </si>
+  <si>
+    <t>20.4.jpg</t>
+  </si>
+  <si>
+    <t>20.5.jpg</t>
+  </si>
+  <si>
+    <t>20.6.jpg</t>
+  </si>
+  <si>
+    <t>21.1.jpg</t>
+  </si>
+  <si>
+    <t>21.2.jpg</t>
+  </si>
+  <si>
+    <t>21.3.jpg</t>
+  </si>
+  <si>
+    <t>21.4.jpg</t>
+  </si>
+  <si>
+    <t>21.5.jpg</t>
+  </si>
+  <si>
+    <t>21.6.jpg</t>
+  </si>
+  <si>
+    <t>22.1.jpg</t>
+  </si>
+  <si>
+    <t>22.2.jpg</t>
+  </si>
+  <si>
+    <t>22.3.jpg</t>
+  </si>
+  <si>
+    <t>22.4.jpg</t>
+  </si>
+  <si>
+    <t>22.5.jpg</t>
+  </si>
+  <si>
+    <t>22.6.jpg</t>
+  </si>
+  <si>
+    <t>23.1.jpg</t>
+  </si>
+  <si>
+    <t>23.2.jpg</t>
+  </si>
+  <si>
+    <t>23.3.jpg</t>
+  </si>
+  <si>
+    <t>23.4.jpg</t>
+  </si>
+  <si>
+    <t>23.5.jpg</t>
+  </si>
+  <si>
+    <t>23.6.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -568,6 +1216,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -593,9 +1248,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6210A376-4F4D-0040-8777-EC5B51962BE6}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G48" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2301,6 +2957,1446 @@
         <v>36</v>
       </c>
     </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2007</v>
+      </c>
+      <c r="B68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" t="s">
+        <v>242</v>
+      </c>
+      <c r="D68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2007</v>
+      </c>
+      <c r="B69" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" t="s">
+        <v>243</v>
+      </c>
+      <c r="D69" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2008</v>
+      </c>
+      <c r="B70" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" t="s">
+        <v>244</v>
+      </c>
+      <c r="D70" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2008</v>
+      </c>
+      <c r="B71" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" t="s">
+        <v>245</v>
+      </c>
+      <c r="D71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2008</v>
+      </c>
+      <c r="B72" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" t="s">
+        <v>246</v>
+      </c>
+      <c r="D72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2008</v>
+      </c>
+      <c r="B73" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" t="s">
+        <v>247</v>
+      </c>
+      <c r="D73" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F73" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2008</v>
+      </c>
+      <c r="B74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" t="s">
+        <v>248</v>
+      </c>
+      <c r="D74" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2008</v>
+      </c>
+      <c r="B75" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" t="s">
+        <v>249</v>
+      </c>
+      <c r="D75" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2009</v>
+      </c>
+      <c r="B76" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" t="s">
+        <v>250</v>
+      </c>
+      <c r="D76" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F76" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2009</v>
+      </c>
+      <c r="B77" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" t="s">
+        <v>251</v>
+      </c>
+      <c r="D77" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2009</v>
+      </c>
+      <c r="B78" t="s">
+        <v>180</v>
+      </c>
+      <c r="C78" t="s">
+        <v>252</v>
+      </c>
+      <c r="D78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2009</v>
+      </c>
+      <c r="B79" t="s">
+        <v>181</v>
+      </c>
+      <c r="C79" t="s">
+        <v>253</v>
+      </c>
+      <c r="D79" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F79" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2009</v>
+      </c>
+      <c r="B80" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" t="s">
+        <v>254</v>
+      </c>
+      <c r="D80" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2009</v>
+      </c>
+      <c r="B81" t="s">
+        <v>183</v>
+      </c>
+      <c r="C81" t="s">
+        <v>255</v>
+      </c>
+      <c r="D81" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F81" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2010</v>
+      </c>
+      <c r="B82" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" t="s">
+        <v>256</v>
+      </c>
+      <c r="D82" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F82" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2010</v>
+      </c>
+      <c r="B83" t="s">
+        <v>185</v>
+      </c>
+      <c r="C83" t="s">
+        <v>257</v>
+      </c>
+      <c r="D83" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2010</v>
+      </c>
+      <c r="B84" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" t="s">
+        <v>258</v>
+      </c>
+      <c r="D84" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2010</v>
+      </c>
+      <c r="B85" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" t="s">
+        <v>259</v>
+      </c>
+      <c r="D85" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F85" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2010</v>
+      </c>
+      <c r="B86" t="s">
+        <v>188</v>
+      </c>
+      <c r="C86" t="s">
+        <v>260</v>
+      </c>
+      <c r="D86" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2010</v>
+      </c>
+      <c r="B87" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" t="s">
+        <v>261</v>
+      </c>
+      <c r="D87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2011</v>
+      </c>
+      <c r="B88" t="s">
+        <v>190</v>
+      </c>
+      <c r="C88" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F88" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2011</v>
+      </c>
+      <c r="B89" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" t="s">
+        <v>263</v>
+      </c>
+      <c r="D89" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F89" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2011</v>
+      </c>
+      <c r="B90" t="s">
+        <v>192</v>
+      </c>
+      <c r="C90" t="s">
+        <v>264</v>
+      </c>
+      <c r="D90" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F90" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2011</v>
+      </c>
+      <c r="B91" t="s">
+        <v>193</v>
+      </c>
+      <c r="C91" t="s">
+        <v>265</v>
+      </c>
+      <c r="D91" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2011</v>
+      </c>
+      <c r="B92" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" t="s">
+        <v>266</v>
+      </c>
+      <c r="D92" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F92" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2011</v>
+      </c>
+      <c r="B93" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" t="s">
+        <v>267</v>
+      </c>
+      <c r="D93" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F93" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2012</v>
+      </c>
+      <c r="B94" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94" t="s">
+        <v>268</v>
+      </c>
+      <c r="D94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F94" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2012</v>
+      </c>
+      <c r="B95" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" t="s">
+        <v>269</v>
+      </c>
+      <c r="D95" t="s">
+        <v>37</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F95" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>2012</v>
+      </c>
+      <c r="B96" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" t="s">
+        <v>270</v>
+      </c>
+      <c r="D96" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F96" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>2012</v>
+      </c>
+      <c r="B97" t="s">
+        <v>199</v>
+      </c>
+      <c r="C97" t="s">
+        <v>271</v>
+      </c>
+      <c r="D97" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F97" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>2012</v>
+      </c>
+      <c r="B98" t="s">
+        <v>200</v>
+      </c>
+      <c r="C98" t="s">
+        <v>272</v>
+      </c>
+      <c r="D98" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F98" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2012</v>
+      </c>
+      <c r="B99" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" t="s">
+        <v>273</v>
+      </c>
+      <c r="D99" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F99" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>2013</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" t="s">
+        <v>274</v>
+      </c>
+      <c r="D100" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F100" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>2013</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="s">
+        <v>275</v>
+      </c>
+      <c r="D101" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F101" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>2013</v>
+      </c>
+      <c r="B102" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102" t="s">
+        <v>276</v>
+      </c>
+      <c r="D102" t="s">
+        <v>37</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F102" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>2013</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" t="s">
+        <v>277</v>
+      </c>
+      <c r="D103" t="s">
+        <v>37</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F103" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>2013</v>
+      </c>
+      <c r="B104" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" t="s">
+        <v>278</v>
+      </c>
+      <c r="D104" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F104" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>2013</v>
+      </c>
+      <c r="B105" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" t="s">
+        <v>279</v>
+      </c>
+      <c r="D105" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F105" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>2014</v>
+      </c>
+      <c r="B106" t="s">
+        <v>208</v>
+      </c>
+      <c r="C106" t="s">
+        <v>280</v>
+      </c>
+      <c r="D106" t="s">
+        <v>37</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F106" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>2014</v>
+      </c>
+      <c r="B107" t="s">
+        <v>209</v>
+      </c>
+      <c r="C107" t="s">
+        <v>281</v>
+      </c>
+      <c r="D107" t="s">
+        <v>37</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F107" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>2014</v>
+      </c>
+      <c r="B108" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" t="s">
+        <v>282</v>
+      </c>
+      <c r="D108" t="s">
+        <v>37</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F108" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>2014</v>
+      </c>
+      <c r="B109" t="s">
+        <v>211</v>
+      </c>
+      <c r="C109" t="s">
+        <v>283</v>
+      </c>
+      <c r="D109" t="s">
+        <v>37</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>2014</v>
+      </c>
+      <c r="B110" t="s">
+        <v>212</v>
+      </c>
+      <c r="C110" t="s">
+        <v>284</v>
+      </c>
+      <c r="D110" t="s">
+        <v>37</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F110" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>2014</v>
+      </c>
+      <c r="B111" t="s">
+        <v>213</v>
+      </c>
+      <c r="C111" t="s">
+        <v>285</v>
+      </c>
+      <c r="D111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F111" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>2015</v>
+      </c>
+      <c r="B112" t="s">
+        <v>214</v>
+      </c>
+      <c r="C112" t="s">
+        <v>286</v>
+      </c>
+      <c r="D112" t="s">
+        <v>37</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F112" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>2015</v>
+      </c>
+      <c r="B113" t="s">
+        <v>215</v>
+      </c>
+      <c r="C113" t="s">
+        <v>287</v>
+      </c>
+      <c r="D113" t="s">
+        <v>37</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F113" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>2015</v>
+      </c>
+      <c r="B114" t="s">
+        <v>216</v>
+      </c>
+      <c r="C114" t="s">
+        <v>288</v>
+      </c>
+      <c r="D114" t="s">
+        <v>37</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F114" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>2015</v>
+      </c>
+      <c r="B115" t="s">
+        <v>217</v>
+      </c>
+      <c r="C115" t="s">
+        <v>289</v>
+      </c>
+      <c r="D115" t="s">
+        <v>37</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F115" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>2015</v>
+      </c>
+      <c r="B116" t="s">
+        <v>218</v>
+      </c>
+      <c r="C116" t="s">
+        <v>290</v>
+      </c>
+      <c r="D116" t="s">
+        <v>37</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F116" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>2015</v>
+      </c>
+      <c r="B117" t="s">
+        <v>219</v>
+      </c>
+      <c r="C117" t="s">
+        <v>291</v>
+      </c>
+      <c r="D117" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F117" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>2016</v>
+      </c>
+      <c r="B118" t="s">
+        <v>220</v>
+      </c>
+      <c r="C118" t="s">
+        <v>292</v>
+      </c>
+      <c r="D118" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F118" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>2016</v>
+      </c>
+      <c r="B119" t="s">
+        <v>221</v>
+      </c>
+      <c r="C119" t="s">
+        <v>293</v>
+      </c>
+      <c r="D119" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F119" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>2016</v>
+      </c>
+      <c r="B120" t="s">
+        <v>222</v>
+      </c>
+      <c r="C120" t="s">
+        <v>294</v>
+      </c>
+      <c r="D120" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F120" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>2016</v>
+      </c>
+      <c r="B121" t="s">
+        <v>223</v>
+      </c>
+      <c r="C121" t="s">
+        <v>295</v>
+      </c>
+      <c r="D121" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F121" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>2016</v>
+      </c>
+      <c r="B122" t="s">
+        <v>225</v>
+      </c>
+      <c r="C122" t="s">
+        <v>296</v>
+      </c>
+      <c r="D122" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F122" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>2016</v>
+      </c>
+      <c r="B123" t="s">
+        <v>226</v>
+      </c>
+      <c r="C123" t="s">
+        <v>297</v>
+      </c>
+      <c r="D123" t="s">
+        <v>37</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F123" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>2017</v>
+      </c>
+      <c r="B124" t="s">
+        <v>227</v>
+      </c>
+      <c r="C124" t="s">
+        <v>298</v>
+      </c>
+      <c r="D124" t="s">
+        <v>37</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F124" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>2017</v>
+      </c>
+      <c r="B125" t="s">
+        <v>228</v>
+      </c>
+      <c r="C125" t="s">
+        <v>299</v>
+      </c>
+      <c r="D125" t="s">
+        <v>37</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F125" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>2017</v>
+      </c>
+      <c r="B126" t="s">
+        <v>229</v>
+      </c>
+      <c r="C126" t="s">
+        <v>300</v>
+      </c>
+      <c r="D126" t="s">
+        <v>37</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F126" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>2017</v>
+      </c>
+      <c r="B127" t="s">
+        <v>230</v>
+      </c>
+      <c r="C127" t="s">
+        <v>301</v>
+      </c>
+      <c r="D127" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F127" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>2017</v>
+      </c>
+      <c r="B128" t="s">
+        <v>231</v>
+      </c>
+      <c r="C128" t="s">
+        <v>302</v>
+      </c>
+      <c r="D128" t="s">
+        <v>37</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F128" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>2017</v>
+      </c>
+      <c r="B129" t="s">
+        <v>232</v>
+      </c>
+      <c r="C129" t="s">
+        <v>303</v>
+      </c>
+      <c r="D129" t="s">
+        <v>37</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F129" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>2018</v>
+      </c>
+      <c r="B130" t="s">
+        <v>233</v>
+      </c>
+      <c r="C130" t="s">
+        <v>304</v>
+      </c>
+      <c r="D130" t="s">
+        <v>37</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F130" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>2018</v>
+      </c>
+      <c r="B131" t="s">
+        <v>234</v>
+      </c>
+      <c r="C131" t="s">
+        <v>305</v>
+      </c>
+      <c r="D131" t="s">
+        <v>37</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F131" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>2018</v>
+      </c>
+      <c r="B132" t="s">
+        <v>235</v>
+      </c>
+      <c r="C132" t="s">
+        <v>306</v>
+      </c>
+      <c r="D132" t="s">
+        <v>37</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F132" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>2018</v>
+      </c>
+      <c r="B133" t="s">
+        <v>236</v>
+      </c>
+      <c r="C133" t="s">
+        <v>307</v>
+      </c>
+      <c r="D133" t="s">
+        <v>37</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F133" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>2018</v>
+      </c>
+      <c r="B134" t="s">
+        <v>224</v>
+      </c>
+      <c r="C134" t="s">
+        <v>308</v>
+      </c>
+      <c r="D134" t="s">
+        <v>37</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F134" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>2018</v>
+      </c>
+      <c r="B135" t="s">
+        <v>237</v>
+      </c>
+      <c r="C135" t="s">
+        <v>309</v>
+      </c>
+      <c r="D135" t="s">
+        <v>37</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F135" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>2019</v>
+      </c>
+      <c r="B136" t="s">
+        <v>238</v>
+      </c>
+      <c r="C136" t="s">
+        <v>310</v>
+      </c>
+      <c r="D136" t="s">
+        <v>37</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F136" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>2019</v>
+      </c>
+      <c r="B137" t="s">
+        <v>239</v>
+      </c>
+      <c r="C137" t="s">
+        <v>311</v>
+      </c>
+      <c r="D137" t="s">
+        <v>37</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F137" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>2019</v>
+      </c>
+      <c r="B138" t="s">
+        <v>240</v>
+      </c>
+      <c r="C138" t="s">
+        <v>312</v>
+      </c>
+      <c r="D138" t="s">
+        <v>37</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F138" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>2019</v>
+      </c>
+      <c r="B139" t="s">
+        <v>241</v>
+      </c>
+      <c r="C139" t="s">
+        <v>313</v>
+      </c>
+      <c r="D139" t="s">
+        <v>37</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F139" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
